--- a/Testing-Framework/EPP-Framework-1-Pre-Execution.xlsx
+++ b/Testing-Framework/EPP-Framework-1-Pre-Execution.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
   <si>
     <t>Total</t>
   </si>
@@ -147,9 +147,6 @@
     <t>* run an on-demand scan</t>
   </si>
   <si>
-    <t>Pre-Execution Testing is the Decovery of Malware Pre-detoniation.</t>
-  </si>
-  <si>
     <t>* copy a large sample malware (and good files) onto your local drive</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
   </si>
   <si>
     <t>2) Mutated the above samples</t>
-  </si>
-  <si>
-    <t>3) Double and/triple mutate (where possibe)</t>
   </si>
   <si>
     <t>Of these sample, ensure you use a variety of file-types</t>
@@ -454,6 +448,18 @@
   </si>
   <si>
     <t>the importance of this scenario and how it relates to your environment.</t>
+  </si>
+  <si>
+    <t>Finally scripts, especially visual basic, you will noticed that many if the NG products fail in this category while traditional do well. Again, beware of sandboxing! Its not that they are do better,</t>
+  </si>
+  <si>
+    <t>Pre-Execution Testing is the Discovery of Malware Pre-detonation.</t>
+  </si>
+  <si>
+    <t>3) Double and/triple mutate (where possible)</t>
+  </si>
+  <si>
+    <t>they are essentially using another capability that the NG tools don't have. The NG tools don't rely at all on the detonation of the pre-exec phase but instead try to determine bad "DNA" to check for file badness. Personally I think zero detonation is rather impressivefor this scenario and allows min endpoint impact during these cycles of malware detection.</t>
   </si>
 </sst>
 </file>
@@ -782,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -907,42 +913,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,18 +925,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
@@ -979,6 +937,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1268,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,152 +1295,160 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>51</v>
+      <c r="B2" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>52</v>
+      <c r="D4" s="64" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="76"/>
+        <v>48</v>
+      </c>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="76" t="s">
-        <v>53</v>
+      <c r="D6" s="64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="76" t="s">
-        <v>56</v>
+      <c r="D10" s="64" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="79" t="s">
-        <v>57</v>
+      <c r="D11" s="67" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="76"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>66</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D23" s="90" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1477,83 +1497,83 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
       <c r="T2" s="20"/>
-      <c r="U2" s="80" t="s">
+      <c r="U2" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+    </row>
+    <row r="3" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>60</v>
-      </c>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-    </row>
-    <row r="3" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
-        <v>62</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="21"/>
       <c r="I3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="21"/>
       <c r="O3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="81" t="s">
+      <c r="U3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="82" t="s">
+      <c r="V3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
-    </row>
-    <row r="4" spans="1:25" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
+    </row>
+    <row r="4" spans="1:25" ht="78" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
@@ -1605,25 +1625,25 @@
         <v>18</v>
       </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="85" t="s">
+      <c r="W4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="85" t="s">
+      <c r="X4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="85" t="s">
+      <c r="Y4" s="69" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1952,7 +1972,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -2105,7 +2125,7 @@
     </row>
     <row r="24" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -2142,7 +2162,7 @@
     </row>
     <row r="26" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2471,7 +2491,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -2645,7 +2665,7 @@
     </row>
     <row r="45" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
@@ -2730,7 +2750,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -2759,7 +2779,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -2788,7 +2808,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -2817,7 +2837,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -3083,14 +3103,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3137,83 +3157,83 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
       <c r="T2" s="20"/>
-      <c r="U2" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
+      <c r="U2" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
     </row>
     <row r="3" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
-        <v>63</v>
+      <c r="A3" s="70" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="21"/>
       <c r="I3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="21"/>
       <c r="O3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="81" t="s">
+      <c r="U3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="82" t="s">
+      <c r="V3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
-    </row>
-    <row r="4" spans="1:25" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
+    </row>
+    <row r="4" spans="1:25" ht="78" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
@@ -3265,25 +3285,25 @@
         <v>18</v>
       </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="85" t="s">
+      <c r="W4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="85" t="s">
+      <c r="X4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="85" t="s">
+      <c r="Y4" s="69" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3612,7 +3632,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -3765,7 +3785,7 @@
     </row>
     <row r="24" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -3802,7 +3822,7 @@
     </row>
     <row r="26" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -4131,7 +4151,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4305,7 +4325,7 @@
     </row>
     <row r="45" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
@@ -4390,7 +4410,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -4419,7 +4439,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -4448,7 +4468,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -4477,7 +4497,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>

--- a/Testing-Framework/EPP-Framework-1-Pre-Execution.xlsx
+++ b/Testing-Framework/EPP-Framework-1-Pre-Execution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="6045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="6045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Execution Scenario" sheetId="9" r:id="rId1"/>
@@ -324,25 +324,13 @@
     <t>2) Detection and quarantining of files as they are newly introduced onto your system.</t>
   </si>
   <si>
-    <t>** if you know your EPP uses sandbox technology, then this will be challenging to test as sandboxing detonates the malware as it does it scans. Kinda cheating!</t>
-  </si>
-  <si>
     <t>Things to NOTE during this phase:</t>
   </si>
   <si>
     <t>** If sandboxing is being used, disconnect yourself from the internet and run as a standalone</t>
   </si>
   <si>
-    <t>Test Conditions for the 2 Pre-Exec scenarios should include:</t>
-  </si>
-  <si>
     <t>2) Mutated the above samples</t>
-  </si>
-  <si>
-    <t>Of these sample, ensure you use a variety of file-types</t>
-  </si>
-  <si>
-    <t>Refer to Environment Preparation Worksheet</t>
   </si>
   <si>
     <t>1) Original Malware Samples (old and new)</t>
@@ -414,9 +402,6 @@
     <t>For example, some solutions do not have an on-write feature of external devices</t>
   </si>
   <si>
-    <t xml:space="preserve">** Some Malware will not get caught - expect this! </t>
-  </si>
-  <si>
     <t>** Additionally, if you have time, re-test the same scenarios 1 week later, followed by another week</t>
   </si>
   <si>
@@ -450,26 +435,120 @@
     <t>the importance of this scenario and how it relates to your environment.</t>
   </si>
   <si>
-    <t>Finally scripts, especially visual basic, you will noticed that many if the NG products fail in this category while traditional do well. Again, beware of sandboxing! Its not that they are do better,</t>
-  </si>
-  <si>
     <t>Pre-Execution Testing is the Discovery of Malware Pre-detonation.</t>
   </si>
   <si>
     <t>3) Double and/triple mutate (where possible)</t>
   </si>
   <si>
-    <t>they are essentially using another capability that the NG tools don't have. The NG tools don't rely at all on the detonation of the pre-exec phase but instead try to determine bad "DNA" to check for file badness. Personally I think zero detonation is rather impressivefor this scenario and allows min endpoint impact during these cycles of malware detection.</t>
+    <r>
+      <t xml:space="preserve">Refer to EPP-Framework-0-Preparation pdf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for full malware samples</t>
+    </r>
+  </si>
+  <si>
+    <t>** NOT ALL Malware will get caught - expect this, especially as its pre-execution</t>
+  </si>
+  <si>
+    <t>** if you know your EPP uses sandbox technology, then this will be challenging to test as sandboxing detonates the malware as it does it scans. Kind of cheating!</t>
+  </si>
+  <si>
+    <t>Test Conditions:</t>
+  </si>
+  <si>
+    <t>Of these samples, ensure you use a variety of file-types</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCRIPTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - you will notice that many of the NG-EPP have ZERO script detection, mainly PEs only. Of the ones I tested, this was pretty universal especially as many scripts are compiled at </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">run-time, it can be hard to analyse the behaviour of static code until it executes. This wasn't a show stopper for me.
+You will noticed however that many of the traditional products will perform well in this scenario/ Why? Sandboxing! This is the reason they perform better, but its kind of cheating as they run / detonate at the same time, where the NG products do not. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Be AWARE of this! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+I saw an impact to system resources when sandboxes were used. They are essentially using another capability that the NG tools don't have. The NG tools don't rely at all on the detonation during their pre-exec phase which makes the agent more efficient.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +626,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,6 +1025,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,24 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1296,10 +1383,10 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="62" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -1307,7 +1394,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1315,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1326,7 +1413,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" s="64" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1334,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1342,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1437,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1358,12 +1445,12 @@
         <v>24</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" s="67" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1464,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -1390,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1406,7 +1493,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -1414,7 +1501,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1509,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1517,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1438,16 +1525,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="D23" s="90" t="s">
+      <c r="D22" s="73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="D23" s="74" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1458,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1497,81 +1584,81 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="77" t="s">
+      <c r="O2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
       <c r="T2" s="20"/>
-      <c r="U2" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
+      <c r="U2" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
     </row>
     <row r="3" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="21"/>
       <c r="I3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="21"/>
       <c r="O3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="78" t="s">
+      <c r="P3" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="80"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="86"/>
       <c r="T3" s="21"/>
       <c r="U3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="74" t="s">
+      <c r="V3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="76"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
     </row>
     <row r="4" spans="1:25" ht="78" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -2125,7 +2212,7 @@
     </row>
     <row r="24" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -3118,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3157,81 +3244,81 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="77" t="s">
+      <c r="O2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
       <c r="T2" s="20"/>
-      <c r="U2" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
+      <c r="U2" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
     </row>
     <row r="3" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="21"/>
       <c r="I3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="21"/>
       <c r="O3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="78" t="s">
+      <c r="P3" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="80"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="86"/>
       <c r="T3" s="21"/>
       <c r="U3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="74" t="s">
+      <c r="V3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="76"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
     </row>
     <row r="4" spans="1:25" ht="78" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -3785,7 +3872,7 @@
     </row>
     <row r="24" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
